--- a/EpochGraph.xlsx
+++ b/EpochGraph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koren\Desktop\תואר\כריית מידע\ממן 22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C95391E-9BAD-40C1-87B9-13665523A62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEB648F-7942-44A5-B67C-392081BCE349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-3825" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -175,10 +175,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>גיליון1!$C$5:$C$10</c:f>
+              <c:f>גיליון1!$C$5:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -196,33 +196,57 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>גיליון1!$D$5:$D$10</c:f>
+              <c:f>גיליון1!$D$5:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.52500000000000002</c:v>
+                  <c:v>0.22339999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45</c:v>
+                  <c:v>0.1527</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.65</c:v>
+                  <c:v>9.4399999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>5.33E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6</c:v>
+                  <c:v>3.0300000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.50249999999999995</c:v>
+                  <c:v>1.8800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.7000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7999999999999996E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -981,10 +1005,10 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>433387</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1275,10 +1299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:D10"/>
+  <dimension ref="C4:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1303,7 +1327,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.52500000000000002</v>
+        <v>0.22339999999999999</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.2">
@@ -1311,7 +1335,7 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>0.45</v>
+        <v>0.1527</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.2">
@@ -1319,7 +1343,7 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>0.65</v>
+        <v>9.4399999999999998E-2</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.2">
@@ -1327,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>5.33E-2</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.2">
@@ -1335,7 +1359,7 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>0.6</v>
+        <v>3.0300000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.2">
@@ -1343,7 +1367,39 @@
         <v>6</v>
       </c>
       <c r="D10">
-        <v>0.50249999999999995</v>
+        <v>1.8800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>1.3100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>9.7000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>5.7999999999999996E-3</v>
       </c>
     </row>
   </sheetData>
